--- a/excelPourBD/XLSX/t_student.xlsx
+++ b/excelPourBD/XLSX/t_student.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projet\P_GesProj2\Projet CatalogueCours\Depot GitHub\col-go-lo\excelPourBD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projet\P_GesProj2\Projet CatalogueCours\Depot GitHub\col-go-lo\excelPourBD\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>idStudent</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Ch. de Praudri 5, 1306 Daillens</t>
   </si>
   <si>
-    <t>Av. de la harpe 40, 1007 Lausane</t>
-  </si>
-  <si>
     <t>dadiesa@etml.educanet2.ch</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>Léandre</t>
   </si>
   <si>
-    <t>Av. de la harpe 25, 1007 Lausane</t>
-  </si>
-  <si>
     <t>campichele@etml.educanet2.ch</t>
   </si>
   <si>
@@ -225,6 +219,18 @@
   </si>
   <si>
     <t>Ch. du Verger 13, 1304 Cossonay</t>
+  </si>
+  <si>
+    <t>Av. de la harpe 40, 1007 Lausanne</t>
+  </si>
+  <si>
+    <t>Av. de la harpe 25, 1007 Lausanne</t>
+  </si>
+  <si>
+    <t>stuProfession</t>
+  </si>
+  <si>
+    <t>Etudiant</t>
   </si>
 </sst>
 </file>
@@ -557,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,13 +574,14 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,10 +601,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -616,11 +626,14 @@
       <c r="F2" s="2">
         <v>796541565</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -639,11 +652,14 @@
       <c r="F3" s="2">
         <v>792543228</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -654,227 +670,258 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>788218220</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F5" s="2">
         <v>787091780</v>
       </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="F6" s="2">
         <v>796929037</v>
       </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="F7" s="2">
         <v>795222356</v>
       </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F8" s="2">
         <v>799633425</v>
       </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F9" s="2">
         <v>787313817</v>
       </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F10" s="2">
         <v>799430442</v>
       </c>
-      <c r="G10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="F11" s="2">
         <v>787699284</v>
       </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="F12" s="2">
         <v>788295138</v>
       </c>
-      <c r="G12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="F13" s="2">
         <v>798241981</v>
       </c>
-      <c r="G13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
